--- a/posesiones/1381258.xlsx
+++ b/posesiones/1381258.xlsx
@@ -1976,10 +1976,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>18</v>
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8">
         <v>15</v>
@@ -2276,7 +2276,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R9">
         <v>12</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2617,7 +2617,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R16">
         <v>24</v>
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2720,7 +2720,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R18">
         <v>5</v>
@@ -2773,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R19">
         <v>18</v>
@@ -2826,7 +2826,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R20">
         <v>17</v>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3067,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3117,7 +3117,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R26">
         <v>40</v>
@@ -3170,7 +3170,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R27">
         <v>14</v>
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3370,7 +3370,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R31">
         <v>17</v>
@@ -3420,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3470,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R33">
         <v>20</v>
@@ -3520,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R34">
         <v>18</v>
@@ -3573,7 +3573,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R35">
         <v>20</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3676,7 +3676,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R37">
         <v>18</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3779,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R39">
         <v>7</v>
@@ -3829,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3923,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3973,7 +3973,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R43">
         <v>22</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4173,7 +4173,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R47">
         <v>13</v>
@@ -4223,7 +4223,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4317,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R51">
         <v>17</v>
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4470,7 +4470,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R53">
         <v>24</v>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4573,7 +4573,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R55">
         <v>13</v>
@@ -4623,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4673,7 +4673,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R57">
         <v>27</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4770,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4817,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4864,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R62">
         <v>0</v>
@@ -4964,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -5011,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5108,7 +5108,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R66">
         <v>21</v>
@@ -5161,7 +5161,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5255,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5305,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R70">
         <v>21</v>
@@ -5355,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5402,7 +5402,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5449,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5496,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5596,7 +5596,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R76">
         <v>24</v>
@@ -5649,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5696,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5796,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R80">
         <v>18</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5893,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5940,7 +5940,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5987,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6081,7 +6081,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6228,7 +6228,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R89">
         <v>30</v>
@@ -6281,7 +6281,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R90">
         <v>9</v>
@@ -6334,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6384,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R92">
         <v>12</v>
@@ -6437,7 +6437,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6487,7 +6487,7 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R94">
         <v>6</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6587,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R96">
         <v>25</v>
@@ -6640,7 +6640,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6690,7 +6690,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R98">
         <v>10</v>
@@ -6743,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6840,7 +6840,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6890,7 +6890,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R102">
         <v>22</v>
@@ -6943,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6993,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R104">
         <v>20</v>
@@ -7046,7 +7046,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R105">
         <v>0</v>
@@ -7090,10 +7090,10 @@
         <v>1</v>
       </c>
       <c r="P106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q106">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7140,7 +7140,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7187,7 +7187,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7228,10 +7228,10 @@
         <v>1</v>
       </c>
       <c r="P109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q109">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7281,7 +7281,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R110">
         <v>12</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7378,7 +7378,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7425,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7472,7 +7472,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7522,7 +7522,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R115">
         <v>35</v>
@@ -7575,7 +7575,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7625,7 +7625,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R117">
         <v>18</v>
@@ -7675,7 +7675,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7728,7 +7728,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R119">
         <v>21</v>
@@ -7778,7 +7778,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7825,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7922,7 +7922,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R123">
         <v>1</v>
@@ -7972,7 +7972,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -8019,7 +8019,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -8069,7 +8069,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R126">
         <v>15</v>
@@ -8122,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8172,7 +8172,7 @@
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R128">
         <v>12</v>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8269,7 +8269,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8363,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8410,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8457,7 +8457,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8504,7 +8504,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8601,7 +8601,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R137">
         <v>28</v>
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8701,7 +8701,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R139">
         <v>18</v>
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8801,7 +8801,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R141">
         <v>14</v>
@@ -8854,7 +8854,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8904,7 +8904,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R143">
         <v>15</v>
@@ -8954,7 +8954,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -9004,7 +9004,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R145">
         <v>10</v>
@@ -9057,7 +9057,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9104,7 +9104,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9198,7 +9198,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9292,7 +9292,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9339,7 +9339,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9389,7 +9389,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R153">
         <v>17</v>
@@ -9442,7 +9442,7 @@
         <v>1</v>
       </c>
       <c r="Q154">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R154">
         <v>23</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9589,7 +9589,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R157">
         <v>26</v>
@@ -9642,7 +9642,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9692,7 +9692,7 @@
         <v>1</v>
       </c>
       <c r="Q159">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R159">
         <v>7</v>
@@ -9745,7 +9745,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9795,7 +9795,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R161">
         <v>7</v>
@@ -9842,7 +9842,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9936,7 +9936,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9983,7 +9983,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -10033,7 +10033,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -10083,7 +10083,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R167">
         <v>29</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10183,7 +10183,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R169">
         <v>20</v>
@@ -10236,7 +10236,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10286,7 +10286,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R171">
         <v>19</v>
@@ -10336,7 +10336,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10380,7 +10380,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10474,7 +10474,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10521,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10571,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10618,7 +10618,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10665,7 +10665,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10715,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10762,7 +10762,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10809,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10856,7 +10856,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10906,7 +10906,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R184">
         <v>24</v>
@@ -10959,7 +10959,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R185">
         <v>21</v>
@@ -11012,7 +11012,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -11062,7 +11062,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R187">
         <v>10</v>
@@ -11115,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11165,7 +11165,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R189">
         <v>26</v>
@@ -11218,7 +11218,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11265,7 +11265,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11359,7 +11359,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11406,7 +11406,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11453,7 +11453,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11500,7 +11500,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11547,7 +11547,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11597,7 +11597,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R198">
         <v>9</v>
@@ -11647,7 +11647,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11694,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11744,7 +11744,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R201">
         <v>17</v>
@@ -11794,7 +11794,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11844,7 +11844,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R203">
         <v>16</v>
@@ -11897,7 +11897,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11944,7 +11944,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11994,7 +11994,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -12041,7 +12041,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12141,7 +12141,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R209">
         <v>28</v>
@@ -12194,7 +12194,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12244,7 +12244,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R211">
         <v>17</v>
@@ -12291,7 +12291,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12338,7 +12338,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12388,7 +12388,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12438,7 +12438,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R215">
         <v>28</v>
@@ -12491,7 +12491,7 @@
         <v>1</v>
       </c>
       <c r="Q216">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R216">
         <v>22</v>
@@ -12544,7 +12544,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12594,7 +12594,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R218">
         <v>5</v>
@@ -12644,7 +12644,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12694,7 +12694,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R220">
         <v>5</v>
@@ -12744,7 +12744,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12838,7 +12838,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12885,7 +12885,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12932,7 +12932,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12979,7 +12979,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -13026,7 +13026,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -13073,7 +13073,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13120,7 +13120,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13167,7 +13167,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13217,7 +13217,7 @@
         <v>1</v>
       </c>
       <c r="Q231">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R231">
         <v>20</v>
@@ -13270,7 +13270,7 @@
         <v>1</v>
       </c>
       <c r="Q232">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R232">
         <v>4</v>
@@ -13326,7 +13326,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R233">
         <v>0</v>
@@ -13370,10 +13370,10 @@
         <v>1</v>
       </c>
       <c r="P234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q234">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13420,7 +13420,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13467,7 +13467,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13514,7 +13514,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13561,7 +13561,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13608,7 +13608,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13655,7 +13655,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13702,7 +13702,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13749,7 +13749,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13796,7 +13796,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13843,7 +13843,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13890,7 +13890,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13937,7 +13937,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13978,10 +13978,10 @@
         <v>1</v>
       </c>
       <c r="P247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q247">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -14028,7 +14028,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14075,7 +14075,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14122,7 +14122,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14169,7 +14169,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14219,7 +14219,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="R252">
         <v>18</v>
@@ -14269,7 +14269,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14316,7 +14316,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14363,7 +14363,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14413,7 +14413,7 @@
         <v>1</v>
       </c>
       <c r="Q256">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="R256">
         <v>9</v>
@@ -14466,7 +14466,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14516,7 +14516,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R258">
         <v>10</v>
@@ -14569,7 +14569,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14616,7 +14616,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14666,7 +14666,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14713,7 +14713,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14760,7 +14760,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14810,7 +14810,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14860,7 +14860,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R265">
         <v>12</v>
@@ -14910,7 +14910,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14957,7 +14957,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -15007,7 +15007,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R268">
         <v>0</v>
@@ -15060,7 +15060,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R269">
         <v>8</v>
@@ -15113,7 +15113,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R270">
         <v>17</v>
@@ -15166,7 +15166,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15216,7 +15216,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R272">
         <v>5</v>
@@ -15266,7 +15266,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15316,7 +15316,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R274">
         <v>17</v>
@@ -15369,7 +15369,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R275">
         <v>22</v>
@@ -15419,7 +15419,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15469,7 +15469,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R277">
         <v>21</v>
@@ -15522,7 +15522,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R278">
         <v>10</v>
@@ -15572,7 +15572,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15622,7 +15622,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R280">
         <v>21</v>
@@ -15675,7 +15675,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R281">
         <v>15</v>
@@ -15728,7 +15728,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15778,7 +15778,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R283">
         <v>17</v>
@@ -15828,7 +15828,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15878,7 +15878,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R285">
         <v>10</v>
@@ -15928,7 +15928,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15975,7 +15975,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -16022,7 +16022,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -16072,7 +16072,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R289">
         <v>8</v>
@@ -16122,7 +16122,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16169,7 +16169,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16219,7 +16219,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R292">
         <v>16</v>
@@ -16272,7 +16272,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16319,7 +16319,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16369,7 +16369,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16419,7 +16419,7 @@
         <v>1</v>
       </c>
       <c r="Q296">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R296">
         <v>13</v>
@@ -16466,7 +16466,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16516,7 +16516,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R298">
         <v>10</v>
@@ -16566,7 +16566,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16616,7 +16616,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R300">
         <v>5</v>
@@ -16666,7 +16666,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16713,7 +16713,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16760,7 +16760,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16810,7 +16810,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R304">
         <v>23</v>
@@ -16863,7 +16863,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16913,7 +16913,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R306">
         <v>8</v>
@@ -16966,7 +16966,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -17013,7 +17013,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -17060,7 +17060,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17110,7 +17110,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R310">
         <v>14</v>
@@ -17160,7 +17160,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17207,7 +17207,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17254,7 +17254,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17304,7 +17304,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R314">
         <v>23</v>
@@ -17357,7 +17357,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R315">
         <v>21</v>
@@ -17410,7 +17410,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R316">
         <v>14</v>
@@ -17463,7 +17463,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17513,7 +17513,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R318">
         <v>14</v>
@@ -17566,7 +17566,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17613,7 +17613,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17663,7 +17663,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17713,7 +17713,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R322">
         <v>19</v>
@@ -17763,7 +17763,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17810,7 +17810,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17857,7 +17857,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17904,7 +17904,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17954,7 +17954,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R327">
         <v>0</v>
@@ -18007,7 +18007,7 @@
         <v>1</v>
       </c>
       <c r="Q328">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R328">
         <v>3</v>
@@ -18057,7 +18057,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18104,7 +18104,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18151,7 +18151,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18198,7 +18198,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18245,7 +18245,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18295,7 +18295,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R334">
         <v>6</v>
@@ -18348,7 +18348,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18395,7 +18395,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18445,7 +18445,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18495,7 +18495,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R338">
         <v>26</v>
@@ -18548,7 +18548,7 @@
         <v>1</v>
       </c>
       <c r="Q339">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R339">
         <v>15</v>
@@ -18598,7 +18598,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18648,7 +18648,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R341">
         <v>19</v>
@@ -18698,7 +18698,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18745,7 +18745,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18792,7 +18792,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18839,7 +18839,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18886,7 +18886,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18933,7 +18933,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18980,7 +18980,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -19030,7 +19030,7 @@
         <v>1</v>
       </c>
       <c r="Q349">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R349">
         <v>22</v>
@@ -19080,7 +19080,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19130,7 +19130,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R351">
         <v>25</v>
@@ -19183,7 +19183,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19230,7 +19230,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19280,7 +19280,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19330,7 +19330,7 @@
         <v>1</v>
       </c>
       <c r="Q355">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R355">
         <v>20</v>
@@ -19380,7 +19380,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19427,7 +19427,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19474,7 +19474,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19521,7 +19521,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19571,7 +19571,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R360">
         <v>28</v>
@@ -19624,7 +19624,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19674,7 +19674,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R362">
         <v>20</v>
@@ -19724,7 +19724,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19771,7 +19771,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19818,7 +19818,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19868,7 +19868,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R366">
         <v>9</v>
@@ -19918,7 +19918,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19968,7 +19968,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R368">
         <v>6</v>
@@ -20018,7 +20018,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -20065,7 +20065,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20112,7 +20112,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20162,7 +20162,7 @@
         <v>1</v>
       </c>
       <c r="Q372">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R372">
         <v>0</v>
@@ -20215,7 +20215,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R373">
         <v>1</v>
@@ -20259,10 +20259,10 @@
         <v>1</v>
       </c>
       <c r="P374" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q374">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20309,7 +20309,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20356,7 +20356,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20397,10 +20397,10 @@
         <v>1</v>
       </c>
       <c r="P377" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q377">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20450,7 +20450,7 @@
         <v>1</v>
       </c>
       <c r="Q378">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R378">
         <v>12</v>
@@ -20500,7 +20500,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20547,7 +20547,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20597,7 +20597,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R381">
         <v>0</v>
@@ -20647,7 +20647,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20694,7 +20694,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20744,7 +20744,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R384">
         <v>23</v>
@@ -20797,7 +20797,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20847,7 +20847,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R386">
         <v>3</v>
@@ -20897,7 +20897,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20947,7 +20947,7 @@
         <v>1</v>
       </c>
       <c r="Q388">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R388">
         <v>6</v>
@@ -20997,7 +20997,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -21044,7 +21044,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -21091,7 +21091,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21141,7 +21141,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R392">
         <v>23</v>
@@ -21191,7 +21191,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21238,7 +21238,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21285,7 +21285,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21332,7 +21332,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21379,7 +21379,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21426,7 +21426,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21473,7 +21473,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21520,7 +21520,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21570,7 +21570,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R401">
         <v>18</v>
@@ -21623,7 +21623,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21673,7 +21673,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R403">
         <v>21</v>
@@ -21726,7 +21726,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21776,7 +21776,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R405">
         <v>17</v>
@@ -21826,7 +21826,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21876,7 +21876,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R407">
         <v>6</v>
@@ -21929,7 +21929,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R408">
         <v>13</v>
@@ -21982,7 +21982,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R409">
         <v>18</v>
@@ -22035,7 +22035,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -22085,7 +22085,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R411">
         <v>16</v>
@@ -22138,7 +22138,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22188,7 +22188,7 @@
         <v>1</v>
       </c>
       <c r="Q413">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R413">
         <v>15</v>
@@ -22241,7 +22241,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22291,7 +22291,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R415">
         <v>5</v>
@@ -22341,7 +22341,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22388,7 +22388,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22435,7 +22435,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22482,7 +22482,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22529,7 +22529,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22576,7 +22576,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22623,7 +22623,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22673,7 +22673,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R423">
         <v>0</v>
@@ -22726,7 +22726,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R424">
         <v>15</v>
@@ -22779,7 +22779,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22826,7 +22826,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22873,7 +22873,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22920,7 +22920,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22970,7 +22970,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R429">
         <v>15</v>
@@ -23020,7 +23020,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -23067,7 +23067,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23114,7 +23114,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23161,7 +23161,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23208,7 +23208,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23255,7 +23255,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23305,7 +23305,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R436">
         <v>23</v>
@@ -23355,7 +23355,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23449,7 +23449,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23496,7 +23496,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23593,7 +23593,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R442">
         <v>4</v>
@@ -23646,7 +23646,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23693,7 +23693,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23787,7 +23787,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23834,7 +23834,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23881,7 +23881,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23931,7 +23931,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R449">
         <v>20</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24075,7 +24075,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24125,7 +24125,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24175,7 +24175,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R454">
         <v>26</v>
@@ -24228,7 +24228,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24278,7 +24278,7 @@
         <v>1</v>
       </c>
       <c r="Q456">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R456">
         <v>11</v>
@@ -24328,7 +24328,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24378,7 +24378,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R458">
         <v>14</v>
@@ -24428,7 +24428,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24475,7 +24475,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24525,7 +24525,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24572,7 +24572,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24713,7 +24713,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24760,7 +24760,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24807,7 +24807,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24854,7 +24854,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24948,7 +24948,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24998,7 +24998,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R471">
         <v>23</v>
@@ -25048,7 +25048,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25142,7 +25142,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25189,7 +25189,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25236,7 +25236,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25430,7 +25430,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R480">
         <v>10</v>
@@ -25483,7 +25483,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25533,7 +25533,7 @@
         <v>1</v>
       </c>
       <c r="Q482">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R482">
         <v>21</v>
@@ -25583,7 +25583,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25633,7 +25633,7 @@
         <v>1</v>
       </c>
       <c r="Q484">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R484">
         <v>4</v>
@@ -25686,7 +25686,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25736,7 +25736,7 @@
         <v>1</v>
       </c>
       <c r="Q486">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R486">
         <v>15</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25930,7 +25930,7 @@
         <v>1</v>
       </c>
       <c r="Q490">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R490">
         <v>20</v>
@@ -25983,7 +25983,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -26030,7 +26030,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -26124,7 +26124,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26171,7 +26171,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26218,7 +26218,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26268,7 +26268,7 @@
         <v>1</v>
       </c>
       <c r="Q497">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R497">
         <v>9</v>
@@ -26321,7 +26321,7 @@
         <v>1</v>
       </c>
       <c r="Q498">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R498">
         <v>8</v>
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26421,7 +26421,7 @@
         <v>1</v>
       </c>
       <c r="Q500">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R500">
         <v>15</v>
@@ -26474,7 +26474,7 @@
         <v>1</v>
       </c>
       <c r="Q501">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R501">
         <v>10</v>
@@ -26524,7 +26524,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26574,7 +26574,7 @@
         <v>1</v>
       </c>
       <c r="Q503">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R503">
         <v>8</v>
@@ -26627,7 +26627,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26677,7 +26677,7 @@
         <v>1</v>
       </c>
       <c r="Q505">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R505">
         <v>9</v>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26777,7 +26777,7 @@
         <v>1</v>
       </c>
       <c r="Q507">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R507">
         <v>6</v>
@@ -26827,7 +26827,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26877,7 +26877,7 @@
         <v>1</v>
       </c>
       <c r="Q509">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R509">
         <v>11</v>
@@ -26930,7 +26930,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -26980,7 +26980,7 @@
         <v>1</v>
       </c>
       <c r="Q511">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R511">
         <v>17</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="513" spans="1:18">
@@ -27083,7 +27083,7 @@
         <v>1</v>
       </c>
       <c r="Q513">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R513">
         <v>7</v>
@@ -27136,7 +27136,7 @@
         <v>1</v>
       </c>
       <c r="Q514">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R514">
         <v>9</v>
@@ -27186,7 +27186,7 @@
         <v>0</v>
       </c>
       <c r="Q515">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -27236,7 +27236,7 @@
         <v>1</v>
       </c>
       <c r="Q516">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R516">
         <v>18</v>
@@ -27286,7 +27286,7 @@
         <v>0</v>
       </c>
       <c r="Q517">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="518" spans="1:18">
@@ -27333,7 +27333,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -27383,7 +27383,7 @@
         <v>0</v>
       </c>
       <c r="Q519">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="520" spans="1:18">
@@ -27433,7 +27433,7 @@
         <v>1</v>
       </c>
       <c r="Q520">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R520">
         <v>25</v>
@@ -27483,7 +27483,7 @@
         <v>0</v>
       </c>
       <c r="Q521">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="522" spans="1:18">
@@ -27533,7 +27533,7 @@
         <v>1</v>
       </c>
       <c r="Q522">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R522">
         <v>5</v>
@@ -27583,7 +27583,7 @@
         <v>0</v>
       </c>
       <c r="Q523">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="524" spans="1:18">
@@ -27633,7 +27633,7 @@
         <v>1</v>
       </c>
       <c r="Q524">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R524">
         <v>4</v>
@@ -27686,7 +27686,7 @@
         <v>1</v>
       </c>
       <c r="Q525">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R525">
         <v>7</v>
@@ -27739,7 +27739,7 @@
         <v>1</v>
       </c>
       <c r="Q526">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R526">
         <v>0</v>
@@ -27783,10 +27783,10 @@
         <v>1</v>
       </c>
       <c r="P527" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q527">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="528" spans="1:18">
@@ -27827,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="Q528">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
